--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Under21201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Under21201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -24,12 +29,12 @@
     <sheet name="ProcessPayrollForNI_Under215" sheetId="11" r:id="rId15"/>
     <sheet name="TestReportsAugust" sheetId="20" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="75">
   <si>
     <t>TC</t>
   </si>
@@ -251,12 +256,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,13 +366,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -413,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +457,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,6 +509,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,22 +701,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -699,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
@@ -713,7 +758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>59</v>
       </c>
@@ -727,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
@@ -741,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>69</v>
       </c>
@@ -755,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>60</v>
       </c>
@@ -769,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>37</v>
       </c>
@@ -783,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>70</v>
       </c>
@@ -797,7 +842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>61</v>
       </c>
@@ -811,7 +856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
@@ -825,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>71</v>
       </c>
@@ -839,7 +884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>62</v>
       </c>
@@ -853,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>48</v>
       </c>
@@ -867,7 +912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>72</v>
       </c>
@@ -881,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>63</v>
       </c>
@@ -895,7 +940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>49</v>
       </c>
@@ -916,29 +961,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -982,7 +1027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1025,30 +1070,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1080,7 +1125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
@@ -1113,29 +1158,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.42578125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1176,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1213,37 +1258,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1287,7 +1332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1327,32 +1372,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
@@ -1417,28 +1462,28 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="47.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="77.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1479,7 +1524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1516,36 +1561,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1589,7 +1634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1612,7 +1657,7 @@
         <v>68</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>52</v>
@@ -1629,33 +1674,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1687,7 +1732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
@@ -1721,28 +1766,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1783,7 +1828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1820,7 +1865,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1828,29 +1873,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="57.85546875" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1894,7 +1939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1934,32 +1979,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1991,7 +2036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
@@ -2024,28 +2069,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2086,7 +2131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2123,37 +2168,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2197,7 +2242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2237,32 +2282,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2294,7 +2339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
@@ -2328,28 +2373,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2390,7 +2435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2427,7 +2472,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Under21201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Under21201718.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="96" windowWidth="14340" windowHeight="4452" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
     <sheet name="ProcessPayrollForNI_Under215" sheetId="11" r:id="rId15"/>
     <sheet name="TestReportsAugust" sheetId="20" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -120,9 +115,6 @@
     <t>PayrollView</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
     <t>April-2017</t>
   </si>
   <si>
@@ -228,9 +220,6 @@
     <t>ProcessPayrollForNI_Under215</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
-  </si>
-  <si>
     <t>M Employees under 21 (attach passport/birth certificate)</t>
   </si>
   <si>
@@ -255,16 +244,22 @@
     <t>NIDirector_Under21Month5</t>
   </si>
   <si>
-    <t>Monthly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 605</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO DIRU21 EMPLOYER</t>
+  </si>
+  <si>
+    <t>DIRU21_Payroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,7 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -348,7 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -362,11 +355,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,7 +419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,26 +452,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,23 +487,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -701,22 +662,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="54.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +692,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -740,41 +701,41 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>36</v>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -786,26 +747,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>50</v>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -814,9 +775,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>37</v>
+    <row r="8" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -824,30 +785,30 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>50</v>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -856,9 +817,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>39</v>
+    <row r="11" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -866,30 +827,30 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>50</v>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -898,9 +859,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>48</v>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -908,30 +869,30 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>50</v>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -940,9 +901,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>49</v>
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -950,7 +911,7 @@
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -961,139 +922,139 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:15" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="E2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>53</v>
+      <c r="O2" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1107,7 +1068,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1125,32 +1086,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>72000</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1158,246 +1119,246 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="E2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="E2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1411,7 +1372,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1429,32 +1390,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>84000</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1462,245 +1423,245 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="47.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="E2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="E2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1714,7 +1675,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1732,32 +1693,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>97968.48</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1766,106 +1727,106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1873,138 +1834,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="F2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2018,7 +1979,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -2036,32 +1997,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>0.12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2069,245 +2030,245 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="E2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="F2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2321,7 +2282,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -2339,32 +2300,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>84000</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2373,106 +2334,106 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Under21201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Under21201718.xlsx
@@ -4,32 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="96" windowWidth="14340" windowHeight="4452" firstSheet="8" activeTab="10"/>
+    <workbookView activeTab="10" firstSheet="8" windowHeight="4452" windowWidth="14340" xWindow="396" yWindow="96"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIDirector_Under21Month1" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNI_Under211" sheetId="3" r:id="rId3"/>
-    <sheet name="TestReportsApril" sheetId="5" r:id="rId4"/>
-    <sheet name="NIDirector_Under21Month2" sheetId="28" r:id="rId5"/>
-    <sheet name="ProcessPayrollForNI_Under212" sheetId="7" r:id="rId6"/>
-    <sheet name="TestReportsMay" sheetId="6" r:id="rId7"/>
-    <sheet name="NIDirector_Under21Month3" sheetId="29" r:id="rId8"/>
-    <sheet name="ProcessPayrollForNI_Under213" sheetId="9" r:id="rId9"/>
-    <sheet name="TestReportsJune" sheetId="8" r:id="rId10"/>
-    <sheet name="NIDirector_Under21Month4" sheetId="30" r:id="rId11"/>
-    <sheet name="ProcessPayrollForNI_Under214" sheetId="10" r:id="rId12"/>
-    <sheet name="TestReportsJuly" sheetId="19" r:id="rId13"/>
-    <sheet name="NIDirector_Under21Month5" sheetId="31" r:id="rId14"/>
-    <sheet name="ProcessPayrollForNI_Under215" sheetId="11" r:id="rId15"/>
-    <sheet name="TestReportsAugust" sheetId="20" r:id="rId16"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIDirector_Under21Month1" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNI_Under211" r:id="rId3" sheetId="3"/>
+    <sheet name="TestReportsApril" r:id="rId4" sheetId="5"/>
+    <sheet name="NIDirector_Under21Month2" r:id="rId5" sheetId="28"/>
+    <sheet name="ProcessPayrollForNI_Under212" r:id="rId6" sheetId="7"/>
+    <sheet name="TestReportsMay" r:id="rId7" sheetId="6"/>
+    <sheet name="NIDirector_Under21Month3" r:id="rId8" sheetId="29"/>
+    <sheet name="ProcessPayrollForNI_Under213" r:id="rId9" sheetId="9"/>
+    <sheet name="TestReportsJune" r:id="rId10" sheetId="8"/>
+    <sheet name="NIDirector_Under21Month4" r:id="rId11" sheetId="30"/>
+    <sheet name="ProcessPayrollForNI_Under214" r:id="rId12" sheetId="10"/>
+    <sheet name="TestReportsJuly" r:id="rId13" sheetId="19"/>
+    <sheet name="NIDirector_Under21Month5" r:id="rId14" sheetId="31"/>
+    <sheet name="ProcessPayrollForNI_Under215" r:id="rId15" sheetId="11"/>
+    <sheet name="TestReportsAugust" r:id="rId16" sheetId="20"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="75">
   <si>
     <t>TC</t>
   </si>
@@ -260,6 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,52 +320,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -381,10 +382,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -542,7 +543,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -551,13 +552,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -567,7 +568,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -576,7 +577,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -585,7 +586,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -595,12 +596,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -631,7 +632,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -650,7 +651,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -662,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -671,13 +672,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -705,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
@@ -719,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
@@ -733,7 +734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.2" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>35</v>
       </c>
@@ -747,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>67</v>
       </c>
@@ -761,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
@@ -775,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="25.95" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
@@ -789,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="9" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>68</v>
       </c>
@@ -803,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="10" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>60</v>
       </c>
@@ -817,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="25.95" r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>38</v>
       </c>
@@ -831,7 +832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="12" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>69</v>
       </c>
@@ -845,7 +846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="13" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>61</v>
       </c>
@@ -859,7 +860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="14" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>47</v>
       </c>
@@ -873,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="15" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>70</v>
       </c>
@@ -887,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="16" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>62</v>
       </c>
@@ -901,7 +902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="17" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>48</v>
       </c>
@@ -916,13 +917,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -931,20 +932,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -988,7 +989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
@@ -1031,14 +1032,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1047,14 +1048,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>72</v>
       </c>
@@ -1114,12 +1115,12 @@
       <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1128,20 +1129,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
@@ -1219,14 +1220,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1235,21 +1236,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="43.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
@@ -1333,14 +1334,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1349,16 +1350,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>72</v>
       </c>
@@ -1418,12 +1419,12 @@
       <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1432,19 +1433,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="47.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="77.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
@@ -1522,14 +1523,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1538,20 +1539,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
@@ -1635,14 +1636,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1651,17 +1652,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="13.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="15.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="1" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>72</v>
       </c>
@@ -1721,13 +1722,13 @@
       <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1736,19 +1737,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
@@ -1826,15 +1827,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1843,20 +1844,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="43.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="57.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
@@ -1940,14 +1941,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1956,16 +1957,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>72</v>
       </c>
@@ -2025,12 +2026,12 @@
       <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2039,19 +2040,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
@@ -2129,14 +2130,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2145,21 +2146,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
@@ -2243,14 +2244,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2259,16 +2260,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>72</v>
       </c>
@@ -2328,13 +2329,13 @@
       <c r="I2" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2343,19 +2344,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
@@ -2433,8 +2434,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>